--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_6_matched_error_tables_first.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_6_matched_error_tables_first.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.341164935938881</v>
+        <v>0.01384939437003609</v>
       </c>
       <c r="C2">
-        <v>1.968769318551409</v>
+        <v>2.218786637292586</v>
       </c>
       <c r="D2">
-        <v>20.22501245602389</v>
+        <v>21.84152128370215</v>
       </c>
       <c r="E2">
-        <v>4.497222749211327</v>
+        <v>4.673491337715536</v>
       </c>
       <c r="F2">
-        <v>4.595002708338177</v>
+        <v>4.783449883342865</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.4186655298375631</v>
+        <v>-0.1108952796442341</v>
       </c>
       <c r="C3">
-        <v>2.119303016169211</v>
+        <v>2.528008180603066</v>
       </c>
       <c r="D3">
-        <v>16.13349660992021</v>
+        <v>20.81929152853822</v>
       </c>
       <c r="E3">
-        <v>4.0166524133811</v>
+        <v>4.562816183952431</v>
       </c>
       <c r="F3">
-        <v>4.098551192548802</v>
+        <v>4.674114189209051</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.4871930987930321</v>
+        <v>-0.5909554399684317</v>
       </c>
       <c r="C4">
-        <v>1.763281726055452</v>
+        <v>1.803239635867731</v>
       </c>
       <c r="D4">
-        <v>10.05444520560828</v>
+        <v>9.880027863097968</v>
       </c>
       <c r="E4">
-        <v>3.170874517480671</v>
+        <v>3.143251161313389</v>
       </c>
       <c r="F4">
-        <v>3.219080904991341</v>
+        <v>3.167399652557398</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.1682860008508657</v>
+        <v>-0.1812640771482746</v>
       </c>
       <c r="C5">
-        <v>1.48676104517946</v>
+        <v>1.430345698091154</v>
       </c>
       <c r="D5">
-        <v>10.22424394018191</v>
+        <v>9.69518460969652</v>
       </c>
       <c r="E5">
-        <v>3.197537167912503</v>
+        <v>3.113709140189</v>
       </c>
       <c r="F5">
-        <v>3.28567861839826</v>
+        <v>3.19360672922055</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.04813391856617827</v>
+        <v>-0.1687012678555518</v>
       </c>
       <c r="C6">
-        <v>1.818324284936792</v>
+        <v>1.931467348941691</v>
       </c>
       <c r="D6">
-        <v>13.09394510854467</v>
+        <v>13.19207313971304</v>
       </c>
       <c r="E6">
-        <v>3.618555666083453</v>
+        <v>3.632089362847924</v>
       </c>
       <c r="F6">
-        <v>3.729591800596935</v>
+        <v>3.733355487989051</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.07131768211739679</v>
+        <v>-0.2974797958422067</v>
       </c>
       <c r="C7">
-        <v>1.788976657003827</v>
+        <v>1.914100007500023</v>
       </c>
       <c r="D7">
-        <v>10.77027192254507</v>
+        <v>11.03882254836823</v>
       </c>
       <c r="E7">
-        <v>3.281809245301297</v>
+        <v>3.322472354793675</v>
       </c>
       <c r="F7">
-        <v>3.38863759616555</v>
+        <v>3.410971099173742</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0841588743935188</v>
+        <v>-0.1960625496366059</v>
       </c>
       <c r="C8">
-        <v>1.833632563077465</v>
+        <v>1.836194132777806</v>
       </c>
       <c r="D8">
-        <v>12.03144784093313</v>
+        <v>11.49911931585798</v>
       </c>
       <c r="E8">
-        <v>3.468637750029993</v>
+        <v>3.391035139283871</v>
       </c>
       <c r="F8">
-        <v>3.589324218845869</v>
+        <v>3.496387284801343</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
